--- a/myapp/files/9_MethodComparePercent/Scenario 307.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 307.xlsx
@@ -584,7 +584,7 @@
         <v>3843</v>
       </c>
       <c r="F2" t="n">
-        <v>3.83735908214924</v>
+        <v>0.803217048349779</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -596,7 +596,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>1.81818181818182</v>
+        <v>0.380228136882129</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>4941</v>
+        <v>5494</v>
       </c>
       <c r="F3" t="n">
-        <v>4.93374739133474</v>
+        <v>1.1482889574899</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>1.81818181818182</v>
+        <v>0.760456273764259</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>5437</v>
+        <v>11441</v>
       </c>
       <c r="F4" t="n">
-        <v>5.4290193415679</v>
+        <v>2.39125845697888</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
@@ -669,10 +669,10 @@
         <v>2.8169014084507</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.63636363636364</v>
+        <v>1.14068441064639</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>11586</v>
+        <v>12950</v>
       </c>
       <c r="F5" t="n">
-        <v>11.5689935794382</v>
+        <v>2.70665125582348</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
@@ -707,10 +707,10 @@
         <v>2.8169014084507</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
-        <v>7.27272727272727</v>
+        <v>3.04182509505703</v>
       </c>
       <c r="K5" t="n">
         <v>2</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>5642</v>
+        <v>10358</v>
       </c>
       <c r="F6" t="n">
-        <v>5.63371843390216</v>
+        <v>2.16490298902082</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,16 +745,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J6" t="n">
-        <v>7.27272727272727</v>
+        <v>3.42205323193916</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
-        <v>2.8169014084507</v>
+        <v>4.22535211267606</v>
       </c>
     </row>
     <row r="7">
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.0367853761409214</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.380228136882129</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>7417</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1.55021099339326</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -821,10 +821,10 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2.28136882129278</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>677</v>
+        <v>17925</v>
       </c>
       <c r="F9" t="n">
-        <v>0.676006270781951</v>
+        <v>3.74646515526146</v>
       </c>
       <c r="G9" t="n">
         <v>5</v>
@@ -859,10 +859,10 @@
         <v>7.04225352112676</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J9" t="n">
-        <v>3.63636363636364</v>
+        <v>6.08365019011407</v>
       </c>
       <c r="K9" t="n">
         <v>4</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>3457</v>
+        <v>19128</v>
       </c>
       <c r="F10" t="n">
-        <v>3.45192566926618</v>
+        <v>3.99790156149742</v>
       </c>
       <c r="G10" t="n">
         <v>3</v>
@@ -897,10 +897,10 @@
         <v>4.22535211267606</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="J10" t="n">
-        <v>5.45454545454545</v>
+        <v>6.84410646387833</v>
       </c>
       <c r="K10" t="n">
         <v>3</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>5139</v>
+        <v>23009</v>
       </c>
       <c r="F11" t="n">
-        <v>5.13145675856491</v>
+        <v>4.80906090696853</v>
       </c>
       <c r="G11" t="n">
         <v>2</v>
@@ -935,16 +935,16 @@
         <v>2.8169014084507</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J11" t="n">
-        <v>3.63636363636364</v>
+        <v>4.56273764258555</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>7.04225352112676</v>
+        <v>5.63380281690141</v>
       </c>
     </row>
     <row r="12">
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>4333</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.905630879651208</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1.14068441064639</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>570</v>
+        <v>26653</v>
       </c>
       <c r="F13" t="n">
-        <v>0.56916332990504</v>
+        <v>5.57068539934079</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1011,10 +1011,10 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J13" t="n">
-        <v>1.81818181818182</v>
+        <v>4.18250950570342</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>8045</v>
+        <v>67311</v>
       </c>
       <c r="F14" t="n">
-        <v>8.03319120892288</v>
+        <v>14.0685253035316</v>
       </c>
       <c r="G14" t="n">
         <v>13</v>
@@ -1049,16 +1049,16 @@
         <v>18.3098591549296</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="J14" t="n">
-        <v>9.09090909090909</v>
+        <v>11.787072243346</v>
       </c>
       <c r="K14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L14" t="n">
-        <v>16.9014084507042</v>
+        <v>18.3098591549296</v>
       </c>
     </row>
     <row r="15">
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>18107</v>
+        <v>68052</v>
       </c>
       <c r="F15" t="n">
-        <v>18.0804217799834</v>
+        <v>14.2234000973976</v>
       </c>
       <c r="G15" t="n">
         <v>10</v>
@@ -1087,16 +1087,16 @@
         <v>14.0845070422535</v>
       </c>
       <c r="I15" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="J15" t="n">
-        <v>14.5454545454545</v>
+        <v>12.5475285171103</v>
       </c>
       <c r="K15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L15" t="n">
-        <v>18.3098591549296</v>
+        <v>16.9014084507042</v>
       </c>
     </row>
     <row r="16">
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>12820</v>
+        <v>28295</v>
       </c>
       <c r="F16" t="n">
-        <v>12.8011822620748</v>
+        <v>5.91387623811007</v>
       </c>
       <c r="G16" t="n">
         <v>4</v>
@@ -1125,10 +1125,10 @@
         <v>5.63380281690141</v>
       </c>
       <c r="I16" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J16" t="n">
-        <v>16.3636363636364</v>
+        <v>7.22433460076046</v>
       </c>
       <c r="K16" t="n">
         <v>5</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>6869</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.43567470859085</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
@@ -1163,10 +1163,10 @@
         <v>2.8169014084507</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.52091254752852</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>1596</v>
+        <v>21393</v>
       </c>
       <c r="F18" t="n">
-        <v>1.59365732373411</v>
+        <v>4.4713042714928</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J18" t="n">
-        <v>1.81818181818182</v>
+        <v>3.42205323193916</v>
       </c>
       <c r="K18" t="n">
         <v>3</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>663</v>
+        <v>32280</v>
       </c>
       <c r="F19" t="n">
-        <v>0.662026820573757</v>
+        <v>6.74677239675536</v>
       </c>
       <c r="G19" t="n">
         <v>9</v>
@@ -1239,10 +1239,10 @@
         <v>12.6760563380282</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="J19" t="n">
-        <v>1.81818181818182</v>
+        <v>7.22433460076046</v>
       </c>
       <c r="K19" t="n">
         <v>3</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>4179</v>
+        <v>35161</v>
       </c>
       <c r="F20" t="n">
-        <v>4.1728658871459</v>
+        <v>7.34892392324397</v>
       </c>
       <c r="G20" t="n">
         <v>12</v>
@@ -1277,10 +1277,10 @@
         <v>16.9014084507042</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="J20" t="n">
-        <v>3.63636363636364</v>
+        <v>8.74524714828897</v>
       </c>
       <c r="K20" t="n">
         <v>4</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>1921</v>
+        <v>28032</v>
       </c>
       <c r="F21" t="n">
-        <v>1.91818027499576</v>
+        <v>5.85890718171767</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1315,10 +1315,10 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>3.63636363636364</v>
+        <v>3.80228136882129</v>
       </c>
       <c r="K21" t="n">
         <v>6</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>1501</v>
+        <v>3610</v>
       </c>
       <c r="F22" t="n">
-        <v>1.49879676874994</v>
+        <v>0.754518226526854</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>1.81818181818182</v>
+        <v>0.760456273764259</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>1539</v>
+        <v>6156</v>
       </c>
       <c r="F23" t="n">
-        <v>1.53674099074361</v>
+        <v>1.28665213365632</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>1.81818181818182</v>
+        <v>0.760456273764259</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>1539</v>
+        <v>7126</v>
       </c>
       <c r="F24" t="n">
-        <v>1.53674099074361</v>
+        <v>1.48938971806935</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1429,10 +1429,10 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
-        <v>1.81818181818182</v>
+        <v>1.90114068441065</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>3685</v>
+        <v>16736</v>
       </c>
       <c r="F25" t="n">
-        <v>3.67959100122819</v>
+        <v>3.49795485849126</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
@@ -1467,10 +1467,10 @@
         <v>4.22535211267606</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J25" t="n">
-        <v>3.63636363636364</v>
+        <v>3.42205323193916</v>
       </c>
       <c r="K25" t="n">
         <v>5</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>3260</v>
+        <v>14703</v>
       </c>
       <c r="F26" t="n">
-        <v>3.25521483419374</v>
+        <v>3.07304196249982</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1505,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J26" t="n">
-        <v>3.63636363636364</v>
+        <v>2.6615969581749</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
